--- a/medicine/Médecine vétérinaire/Julian_Nowak/Julian_Nowak.xlsx
+++ b/medicine/Médecine vétérinaire/Julian_Nowak/Julian_Nowak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Julian Ignacy Nowak, né le 10 mars 1865 à Okocim et mort le 7 novembre 1946 à Cracovie, est un médecin et homme d'État polonais. Il est bactériologiste, professeur de médecine vétérinaire et recteur de l'Université Jagellonne, mécène de Stanisław Wyspiański, maire de Cracovie, premier ministre de Pologne de juillet 1922 à décembre 1922, puis sénateur (1922-1927).
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Okocim, Julian Nowak est l'ainé des dix enfants de Kazimierz Nowak, propriétaire d'une ferme, et de son épouse Teodozja Siewakowska.
 En 1886-1893, il étudie la médecine à l'Université Jagellonne, puis poursuit ses études et ses travaux de recherche à Prague, Munich, Heidelberg, Francfort-sur-le-Main, Paris et Vienne. De retour à Cracovie, en 1899, il occupe le poste de professeur au département de médecine vétérinaire de la faculté de médecine de l'université et donne des cours de médecine vétérinaire aux étudiants en médecine et au Collège agricole. Il est nommé professeur ordinaire de médecine vétérinaire en 1906 et en 1915, il est nommé professeur ordinaire de bactériologie. Au cours de l'année universitaire 1911/1912, il est le doyen de la faculté de médecine.
